--- a/responses/s7_application_domains.xlsx
+++ b/responses/s7_application_domains.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26026"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26130"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://aarhusuniversitet-my.sharepoint.com/personal/au513437_uni_au_dk/Documents/PhD/papers/phd_project/urdf_files/questionnaire/responses/final/csv_completed_responses/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Daniella\Desktop\git_repos\urdf_survey_material\responses\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="39" documentId="13_ncr:40009_{54F21155-0610-4F2F-9218-B5E371769431}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{DBBBD0D7-21CB-41B1-9A83-FADB5CB18C96}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DBFF10A3-4675-4007-8467-D4931B4AFA06}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -4211,7 +4211,7 @@
   <dimension ref="F1:N473"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M9" sqref="M9"/>
+      <selection activeCell="M18" sqref="M18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4313,6 +4313,10 @@
         <f>COUNTIF(G2:J475,"*Aviation*")</f>
         <v>4</v>
       </c>
+      <c r="M5">
+        <f>L5/L23*100</f>
+        <v>2.7027027027027026</v>
+      </c>
       <c r="N5" s="3" t="s">
         <v>174</v>
       </c>
@@ -4346,6 +4350,10 @@
         <f>COUNTIF(G2:J475,"*Inspection*")</f>
         <v>4</v>
       </c>
+      <c r="M7">
+        <f>L7/L23*100</f>
+        <v>2.7027027027027026</v>
+      </c>
       <c r="N7" s="3"/>
     </row>
     <row r="8" spans="6:14" x14ac:dyDescent="0.25">
@@ -4372,6 +4380,10 @@
         <f>COUNTIF(G2:J475,"*Food*")</f>
         <v>4</v>
       </c>
+      <c r="M9">
+        <f>L9/L23*100</f>
+        <v>2.7027027027027026</v>
+      </c>
       <c r="N9" s="3" t="s">
         <v>176</v>
       </c>
@@ -4411,6 +4423,10 @@
       <c r="L11">
         <f>COUNTIF(G2:J475,"*Search and rescue*")</f>
         <v>2</v>
+      </c>
+      <c r="M11">
+        <f>L11/L23*100</f>
+        <v>1.3513513513513513</v>
       </c>
       <c r="N11" s="3"/>
     </row>
@@ -4423,6 +4439,10 @@
         <f>COUNTIF(G2:J475,"*Agriculture*")</f>
         <v>1</v>
       </c>
+      <c r="M12">
+        <f>L12/L23*100</f>
+        <v>0.67567567567567566</v>
+      </c>
       <c r="N12" s="3"/>
     </row>
     <row r="13" spans="6:14" ht="30" x14ac:dyDescent="0.25">
@@ -4434,6 +4454,10 @@
         <f>COUNTIF(G2:J475,"*Automative*")</f>
         <v>3</v>
       </c>
+      <c r="M13">
+        <f>L13/L23*100</f>
+        <v>2.0270270270270272</v>
+      </c>
       <c r="N13" s="3" t="s">
         <v>173</v>
       </c>
@@ -4447,6 +4471,10 @@
         <f>COUNTIF(G2:J475,"*Exploration*")</f>
         <v>2</v>
       </c>
+      <c r="M14">
+        <f>L14/L23*100</f>
+        <v>1.3513513513513513</v>
+      </c>
       <c r="N14" s="3"/>
     </row>
     <row r="15" spans="6:14" x14ac:dyDescent="0.25">
@@ -4458,6 +4486,10 @@
         <f>COUNTIF(G2:J475,"*Surveillance*")</f>
         <v>1</v>
       </c>
+      <c r="M15">
+        <f>L15/L23*100</f>
+        <v>0.67567567567567566</v>
+      </c>
       <c r="N15" s="3"/>
     </row>
     <row r="16" spans="6:14" x14ac:dyDescent="0.25">
@@ -4469,6 +4501,10 @@
         <f>COUNTIF(G2:J475,"*Social*")</f>
         <v>2</v>
       </c>
+      <c r="M16">
+        <f>L16/L23*100</f>
+        <v>1.3513513513513513</v>
+      </c>
       <c r="N16" s="3"/>
     </row>
     <row r="17" spans="6:14" x14ac:dyDescent="0.25">
@@ -4484,6 +4520,10 @@
       <c r="L17">
         <f>COUNTIF(G2:J475,"*Human-robot*")</f>
         <v>2</v>
+      </c>
+      <c r="M17">
+        <f>L17/L23*100</f>
+        <v>1.3513513513513513</v>
       </c>
       <c r="N17" s="3"/>
     </row>
